--- a/Documents/qPCR_Setup_Files/qPCR setup files/LoCal Study MasterMix.xlsx
+++ b/Documents/qPCR_Setup_Files/qPCR setup files/LoCal Study MasterMix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="886"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="886" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Master Mix" sheetId="103" r:id="rId1"/>
@@ -3453,7 +3453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="H8" sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
@@ -3633,7 +3633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
       <selection activeCell="M9" sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
@@ -4379,7 +4379,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="A1:N9"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Documents/qPCR_Setup_Files/qPCR setup files/LoCal Study MasterMix.xlsx
+++ b/Documents/qPCR_Setup_Files/qPCR setup files/LoCal Study MasterMix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="886" activeTab="9"/>
+    <workbookView xWindow="3960" yWindow="7560" windowWidth="28800" windowHeight="17460" tabRatio="886"/>
   </bookViews>
   <sheets>
     <sheet name="Master Mix" sheetId="103" r:id="rId1"/>
@@ -670,7 +670,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1152">
+  <cellStyleXfs count="1154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1289,6 +1289,8 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2000,7 +2002,7 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1152">
+  <cellStyles count="1154">
     <cellStyle name="20% - Accent1 2" xfId="615"/>
     <cellStyle name="Explanatory Text 2" xfId="616"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2577,6 +2579,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1147" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1149" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1153" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3151,6 +3154,7 @@
     <cellStyle name="Hyperlink" xfId="1146" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1148" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1152" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="617"/>
   </cellStyles>
@@ -3453,7 +3457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="H8" sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
@@ -3484,7 +3488,7 @@
       </c>
       <c r="F1" s="39"/>
       <c r="G1" s="39">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>38</v>
@@ -3503,7 +3507,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="44">
         <f>E2*$G$1</f>
-        <v>17.700000000000003</v>
+        <v>28.025000000000002</v>
       </c>
       <c r="H2" s="45"/>
     </row>
@@ -3524,7 +3528,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="44">
         <f t="shared" ref="G3:G6" si="0">E3*$G$1</f>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="H3" s="45"/>
     </row>
@@ -3545,7 +3549,7 @@
       <c r="F4" s="43"/>
       <c r="G4" s="44">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="H4" s="47"/>
     </row>
@@ -3566,7 +3570,7 @@
       <c r="F5" s="43"/>
       <c r="G5" s="44">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="H5" s="47"/>
     </row>
@@ -3585,11 +3589,11 @@
       <c r="F6" s="43"/>
       <c r="G6" s="49">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="H6" s="50">
         <f>G6*0.8</f>
-        <v>1.2000000000000002</v>
+        <v>1.9000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3633,7 +3637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+    <sheetView zoomScale="133" workbookViewId="0">
       <selection activeCell="M9" sqref="A1:M9"/>
     </sheetView>
   </sheetViews>

--- a/Documents/qPCR_Setup_Files/qPCR setup files/LoCal Study MasterMix.xlsx
+++ b/Documents/qPCR_Setup_Files/qPCR setup files/LoCal Study MasterMix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="7560" windowWidth="28800" windowHeight="17460" tabRatio="886"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="886" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Master Mix" sheetId="103" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="8-11-17" sheetId="110" r:id="rId9"/>
     <sheet name="8-12-17" sheetId="111" r:id="rId10"/>
     <sheet name="8-14-17" sheetId="112" r:id="rId11"/>
+    <sheet name="5-19-18" sheetId="114" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Master Mix'!$A$1:$H$8</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="57">
   <si>
     <t>DWV</t>
   </si>
@@ -670,7 +671,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1154">
+  <cellStyleXfs count="1158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1289,6 +1290,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2002,7 +2007,7 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1154">
+  <cellStyles count="1158">
     <cellStyle name="20% - Accent1 2" xfId="615"/>
     <cellStyle name="Explanatory Text 2" xfId="616"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2580,6 +2585,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1149" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1151" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1157" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3155,6 +3162,8 @@
     <cellStyle name="Hyperlink" xfId="1148" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1150" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1156" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="617"/>
   </cellStyles>
@@ -3457,8 +3466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="A1:H8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3488,7 +3497,7 @@
       </c>
       <c r="F1" s="39"/>
       <c r="G1" s="39">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>38</v>
@@ -3507,7 +3516,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="44">
         <f>E2*$G$1</f>
-        <v>28.025000000000002</v>
+        <v>45.725000000000001</v>
       </c>
       <c r="H2" s="45"/>
     </row>
@@ -3528,7 +3537,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="44">
         <f t="shared" ref="G3:G6" si="0">E3*$G$1</f>
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="H3" s="45"/>
     </row>
@@ -3549,7 +3558,7 @@
       <c r="F4" s="43"/>
       <c r="G4" s="44">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>6.2</v>
       </c>
       <c r="H4" s="47"/>
     </row>
@@ -3570,7 +3579,7 @@
       <c r="F5" s="43"/>
       <c r="G5" s="44">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>6.2</v>
       </c>
       <c r="H5" s="47"/>
     </row>
@@ -3589,11 +3598,11 @@
       <c r="F6" s="43"/>
       <c r="G6" s="49">
         <f t="shared" si="0"/>
-        <v>2.375</v>
+        <v>3.875</v>
       </c>
       <c r="H6" s="50">
         <f>G6*0.8</f>
-        <v>1.9000000000000001</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4383,7 +4392,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="Y9" sqref="A1:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4816,6 +4825,594 @@
       <c r="E9" s="57">
         <v>60</v>
       </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="15">
+        <v>83200000000</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="14">
+        <v>83200000</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="14">
+        <v>83200</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="14">
+        <v>83.2</v>
+      </c>
+      <c r="X9" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="56"/>
+      <c r="L12" s="10"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C13" s="56"/>
+      <c r="L13" s="9"/>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C14" s="56"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C15" s="56"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="3:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="A1:N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="6.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1"/>
+    <col min="16" max="16" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="1"/>
+    <col min="19" max="19" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="1"/>
+    <col min="21" max="21" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="1"/>
+    <col min="23" max="23" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30">
+        <v>8</v>
+      </c>
+      <c r="J1" s="30">
+        <v>9</v>
+      </c>
+      <c r="K1" s="30">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5">
+        <v>11</v>
+      </c>
+      <c r="M1" s="30">
+        <v>12</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="20"/>
+      <c r="S1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="20"/>
+      <c r="U1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="20"/>
+      <c r="W1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="57">
+        <v>1</v>
+      </c>
+      <c r="C2" s="57">
+        <v>2</v>
+      </c>
+      <c r="D2" s="57">
+        <v>3</v>
+      </c>
+      <c r="E2" s="57">
+        <v>4</v>
+      </c>
+      <c r="F2" s="57">
+        <v>5</v>
+      </c>
+      <c r="G2" s="57">
+        <v>6</v>
+      </c>
+      <c r="H2" s="57">
+        <v>7</v>
+      </c>
+      <c r="I2" s="57">
+        <v>8</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="16">
+        <v>21300000000</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="14">
+        <v>213000000</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="14">
+        <v>213000</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="14">
+        <v>213</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="57">
+        <v>1</v>
+      </c>
+      <c r="C3" s="57">
+        <v>2</v>
+      </c>
+      <c r="D3" s="57">
+        <v>3</v>
+      </c>
+      <c r="E3" s="57">
+        <v>4</v>
+      </c>
+      <c r="F3" s="57">
+        <v>5</v>
+      </c>
+      <c r="G3" s="57">
+        <v>6</v>
+      </c>
+      <c r="H3" s="57">
+        <v>7</v>
+      </c>
+      <c r="I3" s="57">
+        <v>8</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="16">
+        <v>38500000000</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="14">
+        <v>38500000</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="14">
+        <v>385000</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="14">
+        <v>3850</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="57">
+        <v>1</v>
+      </c>
+      <c r="C4" s="57">
+        <v>2</v>
+      </c>
+      <c r="D4" s="57">
+        <v>3</v>
+      </c>
+      <c r="E4" s="57">
+        <v>4</v>
+      </c>
+      <c r="F4" s="57">
+        <v>5</v>
+      </c>
+      <c r="G4" s="57">
+        <v>6</v>
+      </c>
+      <c r="H4" s="57">
+        <v>7</v>
+      </c>
+      <c r="I4" s="57">
+        <v>8</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="23"/>
+      <c r="T4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="23"/>
+      <c r="V4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="23"/>
+      <c r="X4" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="36"/>
+      <c r="P5" s="16">
+        <v>16600000000</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="14">
+        <v>16600000</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="14">
+        <v>16600</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="14">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="16">
+        <v>42500000000</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="14">
+        <v>42500000</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="14">
+        <v>42500</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="14">
+        <v>42.5</v>
+      </c>
+      <c r="X6" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="13">
+        <v>25100000000</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="19">
+        <v>25100000</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="19">
+        <v>25100</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="19">
+        <v>25.1</v>
+      </c>
+      <c r="X7" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="18">
+        <v>74300000000</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="12">
+        <v>74300000</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="12">
+        <v>74300</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="12">
+        <v>74.3</v>
+      </c>
+      <c r="X8" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
